--- a/MeilleursResultats.xlsx
+++ b/MeilleursResultats.xlsx
@@ -16,13 +16,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B7">
+    <comment authorId="0" ref="B5">
       <text>
         <t xml:space="preserve">{'classifier__C': 1, 'classifier__max_iter': 1000, 'classifier__solver': 'lbfgs'}
 	-Denizcan Sarigül</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C7">
+    <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">KNeighborsClassifier(n_neighbors=3) 
 TfidfVectorizer(sublinear_tf=True, min_df=5, max_df=0.90, norm='l1', encoding='latin-1', ngram_range=(1, 2), tokenizer=spacy_tokenizer)
@@ -34,7 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>TI-DF</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>kNN</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultinominalNaiveBayes </t>
+  </si>
   <si>
     <t>Train</t>
   </si>
@@ -42,31 +60,79 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Logistic regression</t>
-  </si>
-  <si>
-    <t>kNN</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>Random Forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultinominalNaiveBayes </t>
-  </si>
-  <si>
-    <t>TF-IDF</t>
-  </si>
-  <si>
     <t>0.451</t>
   </si>
   <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
     <t>0.454</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.341</t>
   </si>
   <si>
     <t>0.470</t>
@@ -76,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -88,29 +154,136 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF212121"/>
+      <name val="Monospace"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border/>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -119,20 +292,76 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -355,96 +584,163 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.232</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/MeilleursResultats.xlsx
+++ b/MeilleursResultats.xlsx
@@ -1,32 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DENIZ\Documents\GitHub\DSML-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD05C1-E57B-4366-825C-FC82B3919847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Denizcan Sarigül</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B5">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">{'classifier__C': 1, 'classifier__max_iter': 1000, 'classifier__solver': 'lbfgs'}
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{'classifier__C': 1, 'classifier__max_iter': 1000, 'classifier__solver': 'lbfgs'}
 	-Denizcan Sarigül</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C5">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">KNeighborsClassifier(n_neighbors=3) 
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>KNeighborsClassifier(n_neighbors=3) 
 TfidfVectorizer(sublinear_tf=True, min_df=5, max_df=0.90, norm='l1', encoding='latin-1', ngram_range=(1, 2), tokenizer=spacy_tokenizer)
 	-Denizcan Sarigül</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{0797C1EB-BAD0-469D-83CE-789BB5FCCE66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Denizcan Sarigül:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sans modification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="1" shapeId="0" xr:uid="{2919746D-95B8-47C9-94AC-A694DD409C9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Denizcan Sarigül:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sans modification</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -126,9 +200,6 @@
     <t>0.285</t>
   </si>
   <si>
-    <t>Kaggle</t>
-  </si>
-  <si>
     <t>0.465</t>
   </si>
   <si>
@@ -136,35 +207,56 @@
   </si>
   <si>
     <t>0.470</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +264,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,27 +274,39 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -212,6 +316,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -223,19 +328,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -244,24 +358,38 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -276,6 +404,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -284,98 +413,95 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -565,175 +691,181 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="23"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -741,7 +873,7 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MeilleursResultats.xlsx
+++ b/MeilleursResultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DENIZ\Documents\GitHub\DSML-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD05C1-E57B-4366-825C-FC82B3919847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13966A7-98FC-4B3C-A7BB-2299F48F1CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>TI-DF</t>
   </si>
@@ -210,13 +210,31 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>SGDClassifier</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.461</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,6 +276,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,6 +508,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +727,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -715,7 +741,7 @@
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -724,7 +750,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,8 +766,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
@@ -750,7 +779,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -769,8 +798,11 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -789,8 +821,11 @@
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -809,8 +844,11 @@
       <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -829,8 +867,11 @@
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="15"/>
       <c r="B9" s="21" t="s">
         <v>33</v>
@@ -840,7 +881,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -855,8 +896,11 @@
       <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G10" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -874,6 +918,7 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MeilleursResultats.xlsx
+++ b/MeilleursResultats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DENIZ\Documents\GitHub\DSML-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DENIZ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13966A7-98FC-4B3C-A7BB-2299F48F1CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBC1FF-5C1C-4B77-AE1F-B9B2D901618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>Denizcan Sarigül</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -55,64 +54,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{0797C1EB-BAD0-469D-83CE-789BB5FCCE66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Denizcan Sarigül:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-sans modification</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="1" shapeId="0" xr:uid="{2919746D-95B8-47C9-94AC-A694DD409C9B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Denizcan Sarigül:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-sans modification</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>TI-DF</t>
   </si>
   <si>
+    <t>NLP</t>
+  </si>
+  <si>
     <t>Logistic regression</t>
   </si>
   <si>
@@ -128,6 +82,9 @@
     <t xml:space="preserve">MultinominalNaiveBayes </t>
   </si>
   <si>
+    <t>CamamBert</t>
+  </si>
+  <si>
     <t>Train</t>
   </si>
   <si>
@@ -209,32 +166,20 @@
     <t>0.470</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>SGDClassifier</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.461</t>
+    <t xml:space="preserve">Kaggle Test </t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.580</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -264,21 +209,16 @@
       <name val="Monospace"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -444,12 +384,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,10 +465,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,19 +489,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,178 +738,183 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
+      <c r="G2" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="24" t="s">
-        <v>6</v>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="24" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>39</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -909,16 +922,15 @@
       <c r="F15" s="20"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>